--- a/fixture/ManUnited.xlsx
+++ b/fixture/ManUnited.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Manchester United v West Ham United (Carabao Cup) </t>
   </si>
@@ -22,18 +22,12 @@
     <t>22 SepWed19:45</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manchester United v Aston Villa </t>
   </si>
   <si>
     <t>25 SepSat12:30</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manchester United v Villarreal CF </t>
   </si>
   <si>
@@ -46,9 +40,6 @@
     <t>02 OctSat12:30</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manchester United v Atalanta BC </t>
   </si>
   <si>
@@ -61,36 +52,24 @@
     <t>24 OctSun16:30</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manchester United v Manchester City </t>
   </si>
   <si>
     <t>06 NovSat15:00</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manchester United v Arsenal  </t>
   </si>
   <si>
     <t>30 NovTue20:00</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manchester United v Crystal Palace </t>
   </si>
   <si>
     <t>04 DecSat15:00</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manchester United v BSC Young Boys </t>
   </si>
   <si>
@@ -103,9 +82,6 @@
     <t>18 DecSat15:00</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manchester United v Burnley </t>
   </si>
   <si>
@@ -118,9 +94,6 @@
     <t>01 JanSat15:00</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manchester United v West Ham United  </t>
   </si>
   <si>
@@ -151,16 +124,10 @@
     <t>02 AprSat15:00</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manchester United v Norwich City </t>
   </si>
   <si>
     <t>16 AprSat15:00</t>
-  </si>
-  <si>
-    <t>44</t>
   </si>
   <si>
     <t xml:space="preserve">Manchester United v Brentford </t>
@@ -504,241 +471,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B21" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/ManUnited.xlsx
+++ b/fixture/ManUnited.xlsx
@@ -14,25 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t xml:space="preserve">Manchester United v West Ham United (Carabao Cup) </t>
-  </si>
-  <si>
-    <t>22 SepWed19:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester United v Aston Villa </t>
-  </si>
-  <si>
-    <t>25 SepSat12:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester United v Villarreal CF </t>
-  </si>
-  <si>
-    <t>29 SepWed20:00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Manchester United v Everton  </t>
   </si>
@@ -55,7 +37,7 @@
     <t xml:space="preserve">Manchester United v Manchester City </t>
   </si>
   <si>
-    <t>06 NovSat15:00</t>
+    <t>06 NovSat12:30</t>
   </si>
   <si>
     <t xml:space="preserve">Manchester United v Arsenal  </t>
@@ -471,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,30 +603,6 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/ManUnited.xlsx
+++ b/fixture/ManUnited.xlsx
@@ -14,19 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t xml:space="preserve">Manchester United v Everton  </t>
-  </si>
-  <si>
-    <t>02 OctSat12:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester United v Atalanta BC </t>
-  </si>
-  <si>
-    <t>20 OctWed20:00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Manchester United v Liverpool  </t>
   </si>
@@ -43,13 +31,13 @@
     <t xml:space="preserve">Manchester United v Arsenal  </t>
   </si>
   <si>
-    <t>30 NovTue20:00</t>
+    <t>02 DecThu20:15</t>
   </si>
   <si>
     <t xml:space="preserve">Manchester United v Crystal Palace </t>
   </si>
   <si>
-    <t>04 DecSat15:00</t>
+    <t>05 DecSun14:00</t>
   </si>
   <si>
     <t xml:space="preserve">Manchester United v BSC Young Boys </t>
@@ -61,19 +49,19 @@
     <t xml:space="preserve">Manchester United v Brighton and Hove Albion </t>
   </si>
   <si>
-    <t>18 DecSat15:00</t>
+    <t>18 DecSat12:30</t>
   </si>
   <si>
     <t xml:space="preserve">Manchester United v Burnley </t>
   </si>
   <si>
-    <t>28 DecTue15:00</t>
+    <t>30 DecThu20:15</t>
   </si>
   <si>
     <t xml:space="preserve">Manchester United v Wolverhampton Wanderers </t>
   </si>
   <si>
-    <t>01 JanSat15:00</t>
+    <t>03 JanMon17:30</t>
   </si>
   <si>
     <t xml:space="preserve">Manchester United v West Ham United  </t>
@@ -453,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -587,22 +575,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/ManUnited.xlsx
+++ b/fixture/ManUnited.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t xml:space="preserve">Manchester United v Liverpool  </t>
-  </si>
-  <si>
-    <t>24 OctSun16:30</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Manchester United v Manchester City </t>
   </si>
@@ -441,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,14 +561,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/ManUnited.xlsx
+++ b/fixture/ManUnited.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t xml:space="preserve">Manchester United v Manchester City </t>
-  </si>
-  <si>
-    <t>06 NovSat12:30</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Manchester United v Arsenal  </t>
   </si>
@@ -28,6 +22,12 @@
     <t>02 DecThu20:15</t>
   </si>
   <si>
+    <t>MU Women v Leicester City WFC (Continental Cup)</t>
+  </si>
+  <si>
+    <t>05 DecSun12:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manchester United v Crystal Palace </t>
   </si>
   <si>
@@ -58,12 +58,24 @@
     <t>03 JanMon17:30</t>
   </si>
   <si>
+    <t>MU Women v Birmingham WFC</t>
+  </si>
+  <si>
+    <t>15 JanSat12:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manchester United v West Ham United  </t>
   </si>
   <si>
     <t>22 JanSat15:00</t>
   </si>
   <si>
+    <t>MU Women v Tottenham Hotspur Women</t>
+  </si>
+  <si>
+    <t>23 JanSun12:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manchester United v Southampton </t>
   </si>
   <si>
@@ -76,18 +88,36 @@
     <t>26 FebSat15:00</t>
   </si>
   <si>
+    <t>MU Women v Leicester City WFC</t>
+  </si>
+  <si>
+    <t>05 MarSat12:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manchester United v Tottenham Hotspur  </t>
   </si>
   <si>
     <t>12 MarSat15:00</t>
   </si>
   <si>
+    <t>MU Women v Everton Women</t>
+  </si>
+  <si>
+    <t>27 MarSun12:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manchester United v Leicester City  </t>
   </si>
   <si>
     <t>02 AprSat15:00</t>
   </si>
   <si>
+    <t>MU Women v Brighton and Hove Albion WFC</t>
+  </si>
+  <si>
+    <t>03 AprSun12:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manchester United v Norwich City </t>
   </si>
   <si>
@@ -98,6 +128,12 @@
   </si>
   <si>
     <t>30 AprSat15:00</t>
+  </si>
+  <si>
+    <t>MU Women v West Ham Women</t>
+  </si>
+  <si>
+    <t>01 MaySun12:00</t>
   </si>
   <si>
     <t xml:space="preserve">Manchester United v Chelsea  </t>
@@ -435,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,6 +597,54 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/ManUnited.xlsx
+++ b/fixture/ManUnited.xlsx
@@ -14,24 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t xml:space="preserve">Manchester United v Arsenal  </t>
-  </si>
-  <si>
-    <t>02 DecThu20:15</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>MU Women v Leicester City WFC (Continental Cup)</t>
   </si>
   <si>
     <t>05 DecSun12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester United v Crystal Palace </t>
-  </si>
-  <si>
-    <t>05 DecSun14:00</t>
   </si>
   <si>
     <t xml:space="preserve">Manchester United v BSC Young Boys </t>
@@ -471,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -629,22 +617,6 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/ManUnited.xlsx
+++ b/fixture/ManUnited.xlsx
@@ -16,12 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
-    <t>MU Women v Leicester City WFC (Continental Cup)</t>
-  </si>
-  <si>
-    <t>05 DecSun12:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manchester United v BSC Young Boys </t>
   </si>
   <si>
@@ -44,6 +38,12 @@
   </si>
   <si>
     <t>03 JanMon17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester United v Aston Villa (FA Cup) </t>
+  </si>
+  <si>
+    <t>08 JanSat15:00</t>
   </si>
   <si>
     <t>MU Women v Birmingham WFC</t>

--- a/fixture/ManUnited.xlsx
+++ b/fixture/ManUnited.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t xml:space="preserve">Manchester United v BSC Young Boys </t>
-  </si>
-  <si>
-    <t>08 DecWed20:00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Manchester United v Brighton and Hove Albion </t>
   </si>
@@ -43,7 +37,7 @@
     <t xml:space="preserve">Manchester United v Aston Villa (FA Cup) </t>
   </si>
   <si>
-    <t>08 JanSat15:00</t>
+    <t>10 JanMon19:55</t>
   </si>
   <si>
     <t>MU Women v Birmingham WFC</t>
@@ -459,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,14 +603,6 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/ManUnited.xlsx
+++ b/fixture/ManUnited.xlsx
@@ -16,12 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t xml:space="preserve">Manchester United v Brighton and Hove Albion </t>
-  </si>
-  <si>
-    <t>18 DecSat12:30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manchester United v Burnley </t>
   </si>
   <si>
@@ -61,7 +55,7 @@
     <t xml:space="preserve">Manchester United v Southampton </t>
   </si>
   <si>
-    <t>12 FebSat15:00</t>
+    <t>12 FebSat12:30</t>
   </si>
   <si>
     <t xml:space="preserve">Manchester United v Watford </t>
@@ -80,6 +74,12 @@
   </si>
   <si>
     <t>12 MarSat15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester United v Atletico de Madrid </t>
+  </si>
+  <si>
+    <t>15 MarTue20:00</t>
   </si>
   <si>
     <t>MU Women v Everton Women</t>

--- a/fixture/ManUnited.xlsx
+++ b/fixture/ManUnited.xlsx
@@ -14,19 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t xml:space="preserve">Manchester United v Burnley </t>
-  </si>
-  <si>
-    <t>30 DecThu20:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester United v Wolverhampton Wanderers </t>
-  </si>
-  <si>
-    <t>03 JanMon17:30</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Manchester United v Aston Villa (FA Cup) </t>
   </si>
@@ -453,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -587,22 +575,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/ManUnited.xlsx
+++ b/fixture/ManUnited.xlsx
@@ -14,19 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t xml:space="preserve">Manchester United v Aston Villa (FA Cup) </t>
-  </si>
-  <si>
-    <t>10 JanMon19:55</t>
-  </si>
-  <si>
-    <t>MU Women v Birmingham WFC</t>
-  </si>
-  <si>
-    <t>15 JanSat12:00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Manchester United v West Ham United  </t>
   </si>
@@ -38,6 +26,12 @@
   </si>
   <si>
     <t>23 JanSun12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester United v Middlesbrough (FA Cup) </t>
+  </si>
+  <si>
+    <t>04 FebFri20:00</t>
   </si>
   <si>
     <t xml:space="preserve">Manchester United v Southampton </t>
@@ -441,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,14 +561,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/ManUnited.xlsx
+++ b/fixture/ManUnited.xlsx
@@ -14,19 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t xml:space="preserve">Manchester United v West Ham United  </t>
-  </si>
-  <si>
-    <t>22 JanSat15:00</t>
-  </si>
-  <si>
-    <t>MU Women v Tottenham Hotspur Women</t>
-  </si>
-  <si>
-    <t>23 JanSun12:00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Manchester United v Middlesbrough (FA Cup) </t>
   </si>
@@ -40,6 +28,12 @@
     <t>12 FebSat12:30</t>
   </si>
   <si>
+    <t xml:space="preserve">Manchester United v Brighton and Hove Albion </t>
+  </si>
+  <si>
+    <t>15 FebTue20:15</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manchester United v Watford </t>
   </si>
   <si>
@@ -55,7 +49,7 @@
     <t xml:space="preserve">Manchester United v Tottenham Hotspur  </t>
   </si>
   <si>
-    <t>12 MarSat15:00</t>
+    <t>12 MarSat17:30</t>
   </si>
   <si>
     <t xml:space="preserve">Manchester United v Atletico de Madrid </t>
@@ -435,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,14 +547,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/ManUnited.xlsx
+++ b/fixture/ManUnited.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">Manchester United v Middlesbrough (FA Cup) </t>
-  </si>
-  <si>
-    <t>04 FebFri20:00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Manchester United v Southampton </t>
   </si>
@@ -429,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -539,14 +533,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/ManUnited.xlsx
+++ b/fixture/ManUnited.xlsx
@@ -14,84 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">Manchester United v Southampton </t>
+    <t xml:space="preserve">Manchester United Legends v Liverpool Legends </t>
   </si>
   <si>
-    <t>12 FebSat12:30</t>
+    <t>21 MaySat15:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Manchester United v Brighton and Hove Albion </t>
+    <t xml:space="preserve">Women's EURO 2022 England v Austria </t>
   </si>
   <si>
-    <t>15 FebTue20:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester United v Watford </t>
-  </si>
-  <si>
-    <t>26 FebSat15:00</t>
-  </si>
-  <si>
-    <t>MU Women v Leicester City WFC</t>
-  </si>
-  <si>
-    <t>05 MarSat12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester United v Tottenham Hotspur  </t>
-  </si>
-  <si>
-    <t>12 MarSat17:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester United v Atletico de Madrid </t>
-  </si>
-  <si>
-    <t>15 MarTue20:00</t>
-  </si>
-  <si>
-    <t>MU Women v Everton Women</t>
-  </si>
-  <si>
-    <t>27 MarSun12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester United v Leicester City  </t>
-  </si>
-  <si>
-    <t>02 AprSat15:00</t>
-  </si>
-  <si>
-    <t>MU Women v Brighton and Hove Albion WFC</t>
-  </si>
-  <si>
-    <t>03 AprSun12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester United v Norwich City </t>
-  </si>
-  <si>
-    <t>16 AprSat15:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester United v Brentford </t>
-  </si>
-  <si>
-    <t>30 AprSat15:00</t>
-  </si>
-  <si>
-    <t>MU Women v West Ham Women</t>
-  </si>
-  <si>
-    <t>01 MaySun12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester United v Chelsea  </t>
-  </si>
-  <si>
-    <t>15 MaySun16:00</t>
+    <t>06 JulWed20:00</t>
   </si>
 </sst>
 </file>
@@ -423,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,94 +379,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/ManUnited.xlsx
+++ b/fixture/ManUnited.xlsx
@@ -11,23 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">Manchester United Legends v Liverpool Legends </t>
-  </si>
-  <si>
-    <t>21 MaySat15:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Women's EURO 2022 England v Austria </t>
-  </si>
-  <si>
-    <t>06 JulWed20:00</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,29 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>